--- a/03_data/latest/data.xlsx
+++ b/03_data/latest/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="466">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1263,6 +1263,159 @@
   </si>
   <si>
     <t>balazs.pinke@gmail.com</t>
+  </si>
+  <si>
+    <t>Applied R&amp;D Team Leader</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>automative</t>
+  </si>
+  <si>
+    <t>Teanwork Cloud</t>
+  </si>
+  <si>
+    <t>23 system</t>
+  </si>
+  <si>
+    <t>President and Founder (1-person consulting business)</t>
+  </si>
+  <si>
+    <t>Nepan, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Cyber-physical systems</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>cca. 50</t>
+  </si>
+  <si>
+    <t>Eclipse, IBM RSA RTE</t>
+  </si>
+  <si>
+    <t>Cannot provide info due to confidentiality constraints</t>
+  </si>
+  <si>
+    <t>Not on the chosen project</t>
+  </si>
+  <si>
+    <t>Support for linking multiple models, possibly based on different languages</t>
+  </si>
+  <si>
+    <t>Team meetings</t>
+  </si>
+  <si>
+    <t>The project I selected was a large project but one that occurred over a decade ago</t>
+  </si>
+  <si>
+    <t>Bran Selic</t>
+  </si>
+  <si>
+    <t>selic@acm.org</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Software Consulting</t>
+  </si>
+  <si>
+    <t>10000 Data Fields</t>
+  </si>
+  <si>
+    <t>In the needs, I have used "neutral" if I have already use this in the state of the practice.</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>voelter@acm.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langauge Engineering Lead </t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>200+</t>
+  </si>
+  <si>
+    <t>Roughly 250 software components with a focus on their interfaces not their internal behaviour</t>
+  </si>
+  <si>
+    <t>Kolja Dummann</t>
+  </si>
+  <si>
+    <t>dummann@itemis.de</t>
+  </si>
+  <si>
+    <t>Mission-critical systems</t>
+  </si>
+  <si>
+    <t>Avionics, automotive</t>
+  </si>
+  <si>
+    <t>30-50</t>
+  </si>
+  <si>
+    <t>Eclipse, Jetbrains MPS</t>
+  </si>
+  <si>
+    <t>5M LOC</t>
+  </si>
+  <si>
+    <t>Director of Business Development</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Eclipse, Custom platform</t>
+  </si>
+  <si>
+    <t>500k lines of code</t>
+  </si>
+  <si>
+    <t>Vienna, Austria</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Philip Langer</t>
+  </si>
+  <si>
+    <t>Industry Practitioner and Researcher</t>
+  </si>
+  <si>
+    <t>Research Scientist</t>
+  </si>
+  <si>
+    <t>Country India, City Pune</t>
+  </si>
+  <si>
+    <t>200KSLOC</t>
+  </si>
+  <si>
+    <t>Suman Roychoudhury</t>
+  </si>
+  <si>
+    <t>suman.roychoudhury@tcs.com</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1683,26 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="181" width="21.57"/>
+    <col customWidth="1" min="1" max="8" width="21.57"/>
+    <col customWidth="1" min="9" max="9" width="59.29"/>
+    <col customWidth="1" min="10" max="10" width="21.57"/>
+    <col customWidth="1" min="11" max="11" width="56.43"/>
+    <col customWidth="1" min="12" max="12" width="73.71"/>
+    <col customWidth="1" min="13" max="13" width="64.14"/>
+    <col customWidth="1" min="14" max="17" width="21.57"/>
+    <col customWidth="1" min="18" max="18" width="49.29"/>
+    <col customWidth="1" min="19" max="23" width="21.57"/>
+    <col customWidth="1" min="24" max="24" width="37.86"/>
+    <col customWidth="1" min="25" max="25" width="21.57"/>
+    <col customWidth="1" min="26" max="26" width="50.29"/>
+    <col customWidth="1" min="27" max="34" width="21.57"/>
+    <col customWidth="1" min="35" max="35" width="43.71"/>
+    <col customWidth="1" min="36" max="37" width="21.57"/>
+    <col customWidth="1" min="38" max="38" width="49.29"/>
+    <col customWidth="1" min="39" max="50" width="21.57"/>
+    <col customWidth="1" min="51" max="52" width="32.29"/>
+    <col customWidth="1" min="53" max="53" width="33.0"/>
+    <col customWidth="1" min="54" max="181" width="21.57"/>
     <col customWidth="1" min="182" max="182" width="56.0"/>
     <col customWidth="1" min="183" max="191" width="21.57"/>
   </cols>
@@ -18798,6 +18970,4273 @@
         <v>243</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>44601.539234895834</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CI33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CV33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DC33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DO33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DP33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EF33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EK33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EM33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EO33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EP33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="ES33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EV33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EW33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EX33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FB33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FD33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FH33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FI33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FJ33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FK33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FL33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FM33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FP33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FQ33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FR33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FT33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FU33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FV33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FX33" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>44601.84419019676</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU34" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BV34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CN34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CS34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CV34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CW34" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CX34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DE34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DF34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DO34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DU34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DV34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EB34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EG34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EH34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EI34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EL34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EO34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EP34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EQ34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="ER34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="ES34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EW34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EX34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EZ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FB34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FD34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FH34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="FI34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FJ34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FK34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FL34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FM34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FP34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="FQ34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FR34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FT34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FU34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FX34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FZ34" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="GA34" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="GB34" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="GC34" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44601.856345196764</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CD35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CQ35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CV35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DA35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DE35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DH35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DI35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DK35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DL35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DM35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DO35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DP35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DS35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DW35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DZ35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EB35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EE35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EK35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EM35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EN35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EO35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EP35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ES35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EV35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EX35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FA35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FB35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FC35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FD35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FE35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FF35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FG35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FH35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FI35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FJ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FL35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FM35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FN35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FO35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FP35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FQ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FS35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FT35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FU35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FV35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FX35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FZ35" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="GA35" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="GB35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="GC35" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44602.50077114583</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CN36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CT36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CV36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DD36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DF36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DG36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DK36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DO36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DW36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EG36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EI36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EL36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EO36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EP36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ER36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ES36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EW36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EX36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FA36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FB36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FC36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FD36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FE36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FG36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FH36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FI36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FJ36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FK36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FL36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FM36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FN36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FP36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FQ36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FR36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FS36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FT36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FU36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FV36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FW36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FX36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="GA36" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="GB36" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="GC36" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44606.77281953704</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BP37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CG37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CM37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CP37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DI37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DO37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EG37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EK37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EN37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EO37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EP37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ES37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EX37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FB37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FC37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FD37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FG37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FH37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FI37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FJ37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FK37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FL37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FM37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FP37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FQ37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FS37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FT37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FU37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FW37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FX37" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44607.866725625005</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BP38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CO38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CQ38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CX38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DI38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DL38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EG38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EK38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EN38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EO38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EP38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EQ38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="ES38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EX38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FB38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FD38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FH38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FI38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FJ38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FK38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FL38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FM38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FP38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FQ38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FR38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FS38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FT38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FU38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FW38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FX38" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44613.41390140046</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CM39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CY39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DC39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DD39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DF39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DG39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DI39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DQ39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EA39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EB39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EE39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EG39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EH39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EI39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EO39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EP39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EQ39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ER39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ES39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ET39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EX39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FB39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FC39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FD39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FE39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FF39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FH39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FI39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FJ39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FK39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FL39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FM39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FP39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FQ39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FR39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FS39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FT39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FU39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FW39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FX39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="GA39" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44614.2879549537</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CM40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CP40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CQ40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CR40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CS40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CT40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CU40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CV40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CX40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CZ40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DC40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DO40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DS40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EF40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EH40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EO40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EP40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EQ40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ER40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ES40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ET40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EU40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EV40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EW40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EX40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EZ40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FA40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FB40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FD40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FF40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FH40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FI40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FJ40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FK40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FL40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FM40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FN40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FO40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FP40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FQ40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FS40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FT40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FU40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FV40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FX40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="GA40" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="GB40" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="GC40" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/03_data/latest/data.xlsx
+++ b/03_data/latest/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="488">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1416,6 +1416,72 @@
   </si>
   <si>
     <t>suman.roychoudhury@tcs.com</t>
+  </si>
+  <si>
+    <t>IT Architect</t>
+  </si>
+  <si>
+    <t>Netherlands, Nieuwegein</t>
+  </si>
+  <si>
+    <t>250-499</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>enterprise architect, archie</t>
+  </si>
+  <si>
+    <t>7 components</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Versioning (branching, etc) and publishing (specific version of viewpoint to specific stakeholders )</t>
+  </si>
+  <si>
+    <t>plain stupid', exchange/reuse of models as images (files)</t>
+  </si>
+  <si>
+    <t>Interesting subject</t>
+  </si>
+  <si>
+    <t>Arjan van Krimpen</t>
+  </si>
+  <si>
+    <t>arjan.vankrimpen@gmail.com</t>
+  </si>
+  <si>
+    <t>Workflow Technology Lead</t>
+  </si>
+  <si>
+    <t>Netherlands Venlo</t>
+  </si>
+  <si>
+    <t>Printing Industry</t>
+  </si>
+  <si>
+    <t>workflow in Graphic Arts printing</t>
+  </si>
+  <si>
+    <t>20 manyear</t>
+  </si>
+  <si>
+    <t>KISS Domino</t>
+  </si>
+  <si>
+    <t>1/ model migration 2/ model packaging and dependency management</t>
+  </si>
+  <si>
+    <t>For me the discovery phase (get the conversation going) calls for tools &amp; methods different from the formulation phase (make complete and consistent). your questions did not allow me to address this difference.</t>
+  </si>
+  <si>
+    <t>Jennek Geels</t>
+  </si>
+  <si>
+    <t>jennek.geels@cpp.canon</t>
   </si>
 </sst>
 </file>
@@ -23237,6 +23303,1114 @@
         <v>152</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44627.320762523144</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ41" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU41" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="BV41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CI41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CK41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CQ41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CT41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CV41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CW41" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="CX41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DD41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DH41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DN41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DO41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DY41" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="DZ41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EM41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EN41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EO41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EP41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EQ41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ER41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ES41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="ET41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EX41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EY41" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="EZ41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FA41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FB41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FD41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FF41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FH41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FI41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FJ41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FL41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FM41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FP41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FQ41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FS41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FT41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FU41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FV41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FX41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY41" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="FZ41" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="GA41" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="GB41" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="GC41" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44629.94732792824</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ42" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU42" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="BV42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BX42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BZ42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CQ42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CV42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CW42" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="CX42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CZ42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DA42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DB42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DC42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DE42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DI42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DQ42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EA42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EM42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EN42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EO42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EP42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EQ42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="ER42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="ES42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EU42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EW42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EX42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="EY42" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="EZ42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FA42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FB42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FC42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FD42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FE42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FF42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FG42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="FH42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FI42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FJ42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="FL42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FM42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FN42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FO42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FP42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FQ42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="FT42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="FU42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FX42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="FZ42" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="GA42" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="GB42" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="GC42" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
